--- a/data/trans_orig/P1408-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1408-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>9773</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4196</v>
+        <v>4435</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17852</v>
+        <v>18184</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02062753694866233</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008855468412825302</v>
+        <v>0.009360491534687251</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03768054319449731</v>
+        <v>0.03838070676616234</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -765,19 +765,19 @@
         <v>4650</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10353</v>
+        <v>10414</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01516084203545863</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005600554166813315</v>
+        <v>0.00559760695487262</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03375695438821595</v>
+        <v>0.03395761129377886</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -786,19 +786,19 @@
         <v>14422</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7687</v>
+        <v>7952</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23456</v>
+        <v>25291</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01847940004998086</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009849003432534011</v>
+        <v>0.01018904678007223</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03005477016451608</v>
+        <v>0.03240487889851596</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>464003</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>455924</v>
+        <v>455592</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>469580</v>
+        <v>469341</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9793724630513376</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9623194568055027</v>
+        <v>0.9616192932338374</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9911445315871746</v>
+        <v>0.9906395084653128</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>293</v>
@@ -836,19 +836,19 @@
         <v>302030</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>296327</v>
+        <v>296266</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>304962</v>
+        <v>304963</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9848391579645414</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9662430456117842</v>
+        <v>0.9660423887062214</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9943994458331867</v>
+        <v>0.9944023930451273</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>740</v>
@@ -857,19 +857,19 @@
         <v>766035</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>757001</v>
+        <v>755166</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>772770</v>
+        <v>772505</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9815205999500192</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.969945229835484</v>
+        <v>0.967595121101484</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9901509965674661</v>
+        <v>0.9898109532199278</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>15434</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9196</v>
+        <v>9870</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23476</v>
+        <v>24535</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04206098482678566</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02506225257740448</v>
+        <v>0.0268980455735813</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06397869846187795</v>
+        <v>0.06686530650271034</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -982,19 +982,19 @@
         <v>6503</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2621</v>
+        <v>2771</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14254</v>
+        <v>13734</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01748635733290448</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007049097481032572</v>
+        <v>0.007451014395138549</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03833007545153006</v>
+        <v>0.03693316890768276</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -1003,19 +1003,19 @@
         <v>21936</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13986</v>
+        <v>14434</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32141</v>
+        <v>32326</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02969166586218271</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01893008236092071</v>
+        <v>0.01953762532979254</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04350485525220716</v>
+        <v>0.04375520413020512</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>351500</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>343458</v>
+        <v>342399</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>357738</v>
+        <v>357064</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9579390151732143</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.936021301538122</v>
+        <v>0.9331346934972896</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9749377474225955</v>
+        <v>0.9731019544264187</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>357</v>
@@ -1053,19 +1053,19 @@
         <v>365362</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>357611</v>
+        <v>358131</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>369244</v>
+        <v>369094</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9825136426670955</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9616699245484703</v>
+        <v>0.9630668310923186</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9929509025189674</v>
+        <v>0.9925489856048617</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>690</v>
@@ -1074,19 +1074,19 @@
         <v>716863</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>706658</v>
+        <v>706473</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>724813</v>
+        <v>724365</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9703083341378173</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9564951447477926</v>
+        <v>0.9562447958697948</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9810699176390792</v>
+        <v>0.9804623746702074</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>25126</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16794</v>
+        <v>16035</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38823</v>
+        <v>35444</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04632434710869058</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03096240050282532</v>
+        <v>0.02956414049951682</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07157797867105867</v>
+        <v>0.06534836097739678</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1199,19 +1199,19 @@
         <v>6417</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2150</v>
+        <v>2190</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12338</v>
+        <v>12960</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03824473580913201</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01281255661528332</v>
+        <v>0.0130525540990681</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07353876622012247</v>
+        <v>0.07724200112728644</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1220,19 +1220,19 @@
         <v>31543</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22457</v>
+        <v>22463</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44335</v>
+        <v>44713</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04441549333559421</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03162254176015712</v>
+        <v>0.03163080961115322</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06242909158143536</v>
+        <v>0.06296063754241409</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>517263</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>503566</v>
+        <v>506945</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>525595</v>
+        <v>526354</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9536756528913094</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9284220213289414</v>
+        <v>0.9346516390226033</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9690375994971747</v>
+        <v>0.9704358595004833</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>158</v>
@@ -1270,19 +1270,19 @@
         <v>161365</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>155444</v>
+        <v>154822</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165632</v>
+        <v>165592</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.961755264190868</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9264612337798774</v>
+        <v>0.9227579988727136</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9871874433847166</v>
+        <v>0.9869474459009319</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>665</v>
@@ -1291,19 +1291,19 @@
         <v>678628</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>665836</v>
+        <v>665458</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>687714</v>
+        <v>687708</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9555845066644058</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9375709084185646</v>
+        <v>0.9370393624575857</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9683774582398429</v>
+        <v>0.9683691903888467</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>56814</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43869</v>
+        <v>43435</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72869</v>
+        <v>71643</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0458793678411058</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03542560502303546</v>
+        <v>0.03507497812780866</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05884473872392865</v>
+        <v>0.05785437812398683</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -1416,19 +1416,19 @@
         <v>22276</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13693</v>
+        <v>14088</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33275</v>
+        <v>31915</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03118588927638972</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01917074737902455</v>
+        <v>0.01972365007729472</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04658461289411736</v>
+        <v>0.04468147866645839</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -1437,19 +1437,19 @@
         <v>79090</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62662</v>
+        <v>63614</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>94739</v>
+        <v>95793</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04050436521074448</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03209105386749995</v>
+        <v>0.0325786237153378</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04851901439932248</v>
+        <v>0.0490586365044386</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1181520</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1165465</v>
+        <v>1166691</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1194465</v>
+        <v>1194899</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9541206321588942</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9411552612760714</v>
+        <v>0.9421456218760133</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9645743949769646</v>
+        <v>0.9649250218721913</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>672</v>
@@ -1487,19 +1487,19 @@
         <v>692009</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>681010</v>
+        <v>682370</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>700592</v>
+        <v>700197</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9688141107236102</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9534153871058825</v>
+        <v>0.9553185213335414</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9808292526209754</v>
+        <v>0.9802763499227048</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1838</v>
@@ -1508,19 +1508,19 @@
         <v>1873530</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1857881</v>
+        <v>1856827</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1889958</v>
+        <v>1889006</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9594956347892555</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9514809856006775</v>
+        <v>0.9509413634955614</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9679089461325</v>
+        <v>0.9674213762846622</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>25203</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16345</v>
+        <v>16790</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35366</v>
+        <v>35516</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07189425922496308</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04662709794420586</v>
+        <v>0.04789430906684573</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1008865706535642</v>
+        <v>0.1013141271840578</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1633,19 +1633,19 @@
         <v>14412</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8245</v>
+        <v>8364</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23858</v>
+        <v>23656</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02533898265866424</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01449728566385977</v>
+        <v>0.01470526191537995</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04194731733662117</v>
+        <v>0.04159324493230477</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -1654,19 +1654,19 @@
         <v>39614</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28252</v>
+        <v>27563</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53960</v>
+        <v>52265</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04309169809453564</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0307317659739666</v>
+        <v>0.02998226553845342</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05869663557330412</v>
+        <v>0.05685227378390726</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>325352</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>315189</v>
+        <v>315039</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>334210</v>
+        <v>333765</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9281057407750369</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8991134293464357</v>
+        <v>0.8986858728159423</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9533729020557941</v>
+        <v>0.9521056909331542</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>525</v>
@@ -1704,19 +1704,19 @@
         <v>554340</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>544894</v>
+        <v>545096</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>560507</v>
+        <v>560388</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9746610173413357</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9580526826633791</v>
+        <v>0.9584067550676953</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9855027143361403</v>
+        <v>0.9852947380846201</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>839</v>
@@ -1725,19 +1725,19 @@
         <v>879693</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>865347</v>
+        <v>867042</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>891055</v>
+        <v>891744</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9569083019054644</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9413033644266958</v>
+        <v>0.9431477262160928</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9692682340260333</v>
+        <v>0.9700177344615466</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>3670</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8541</v>
+        <v>8833</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01230781240216509</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002998307081598942</v>
+        <v>0.002953887353065944</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02864038490394467</v>
+        <v>0.02962002478887473</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -1850,19 +1850,19 @@
         <v>37278</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25978</v>
+        <v>26330</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49653</v>
+        <v>51499</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02985228083013512</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02080339321962323</v>
+        <v>0.02108454063668235</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03976203397251702</v>
+        <v>0.0412400895977961</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -1871,19 +1871,19 @@
         <v>40949</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29642</v>
+        <v>30393</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>55401</v>
+        <v>54667</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02647031307394089</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01916144346014178</v>
+        <v>0.01964679306182946</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03581267484008448</v>
+        <v>0.0353383538011138</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>294531</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>289660</v>
+        <v>289368</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>297307</v>
+        <v>297320</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9876921875978349</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9713596150960551</v>
+        <v>0.9703799752111252</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9970016929184011</v>
+        <v>0.997046112646934</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1203</v>
@@ -1921,19 +1921,19 @@
         <v>1211482</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1199107</v>
+        <v>1197261</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1222782</v>
+        <v>1222430</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9701477191698649</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.960237966027483</v>
+        <v>0.9587599104022039</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9791966067803765</v>
+        <v>0.9789154593633177</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1505</v>
@@ -1942,19 +1942,19 @@
         <v>1506011</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1491559</v>
+        <v>1492293</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1517318</v>
+        <v>1516567</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9735296869260591</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9641873251599156</v>
+        <v>0.9646616461988863</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9808385565398583</v>
+        <v>0.9803532069381705</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>136019</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>116058</v>
+        <v>116907</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>161794</v>
+        <v>162300</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04159372553794833</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03548964342130055</v>
+        <v>0.03574916627627434</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04947550443039118</v>
+        <v>0.04963023501368954</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>88</v>
@@ -2067,19 +2067,19 @@
         <v>91534</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>73666</v>
+        <v>73110</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>111292</v>
+        <v>113237</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02709622618352431</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02180676886547782</v>
+        <v>0.02164216393552792</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03294482093945962</v>
+        <v>0.03352070155174604</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>226</v>
@@ -2088,19 +2088,19 @@
         <v>227554</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>200460</v>
+        <v>199058</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>259006</v>
+        <v>258329</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03422729388844886</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03015197524698847</v>
+        <v>0.02994107699467819</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03895813897250761</v>
+        <v>0.03885631234696532</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3134171</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3108396</v>
+        <v>3107890</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3154132</v>
+        <v>3153283</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9584062744620516</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9505244955696088</v>
+        <v>0.9503697649863104</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9645103565786997</v>
+        <v>0.9642508337237257</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3208</v>
@@ -2138,19 +2138,19 @@
         <v>3286590</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3266832</v>
+        <v>3264887</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3304458</v>
+        <v>3305014</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9729037738164756</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9670551790605404</v>
+        <v>0.966479298448254</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9781932311345222</v>
+        <v>0.9783578360644721</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6277</v>
@@ -2159,19 +2159,19 @@
         <v>6420760</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6389308</v>
+        <v>6389985</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6447854</v>
+        <v>6449256</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9657727061115512</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9610418610274925</v>
+        <v>0.9611436876530347</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9698480247530117</v>
+        <v>0.9700589230053218</v>
       </c>
     </row>
     <row r="24">
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6946</v>
+        <v>7181</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004520122752289095</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01588665032904872</v>
+        <v>0.01642453215843117</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6125</v>
+        <v>5197</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003051368367343261</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01947841055534864</v>
+        <v>0.01652626872001053</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -2547,19 +2547,19 @@
         <v>2936</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9639</v>
+        <v>9019</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003905678759175928</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001246672056970644</v>
+        <v>0.001256943114252372</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01282360722470703</v>
+        <v>0.01199846140684689</v>
       </c>
     </row>
     <row r="5">
@@ -2576,7 +2576,7 @@
         <v>435235</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>430265</v>
+        <v>430030</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>437211</v>
@@ -2585,7 +2585,7 @@
         <v>0.9954798772477109</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9841133496709513</v>
+        <v>0.9835754678415688</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2597,7 +2597,7 @@
         <v>313494</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>308329</v>
+        <v>309257</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>314454</v>
@@ -2606,7 +2606,7 @@
         <v>0.9969486316326568</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9805215894446537</v>
+        <v>0.9834737312799873</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2618,19 +2618,19 @@
         <v>748729</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>742026</v>
+        <v>742646</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>750728</v>
+        <v>750720</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9960943212408241</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9871763927752933</v>
+        <v>0.9880015385931529</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9987533279430293</v>
+        <v>0.9987430568857476</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>5472</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1057</v>
+        <v>1070</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14249</v>
+        <v>15504</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01306574887042612</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002524796903636176</v>
+        <v>0.002555460255747735</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03402262463297503</v>
+        <v>0.03701914900329252</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5535</v>
+        <v>4494</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002889761228368356</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01637660739969741</v>
+        <v>0.01329636313511437</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -2764,19 +2764,19 @@
         <v>6449</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2016</v>
+        <v>2048</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18548</v>
+        <v>17025</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008520875526416082</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002663466211136847</v>
+        <v>0.002706451069373165</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0245076226732899</v>
+        <v>0.02249547218720751</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>413325</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>404548</v>
+        <v>403293</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417740</v>
+        <v>417727</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9869342511295739</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.965977375367025</v>
+        <v>0.962980850996707</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9974752030963638</v>
+        <v>0.9974445397442522</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>304</v>
@@ -2814,7 +2814,7 @@
         <v>337034</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>332476</v>
+        <v>333517</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>338011</v>
@@ -2823,7 +2823,7 @@
         <v>0.9971102387716316</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9836233926003024</v>
+        <v>0.9867036368648857</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2835,19 +2835,19 @@
         <v>750359</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>738260</v>
+        <v>739783</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>754792</v>
+        <v>754760</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9914791244735839</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9754923773267105</v>
+        <v>0.9775045278127926</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9973365337888631</v>
+        <v>0.9972935489306268</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>17082</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9727</v>
+        <v>9314</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28557</v>
+        <v>27793</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02714010654834342</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01545389755993615</v>
+        <v>0.01479806208182583</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04537009520990032</v>
+        <v>0.04415701549300773</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -2960,19 +2960,19 @@
         <v>3102</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9063</v>
+        <v>8835</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0119235462382861</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003676161676748252</v>
+        <v>0.003647871938193883</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03484058749357624</v>
+        <v>0.03396467074341961</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -2981,19 +2981,19 @@
         <v>20184</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12394</v>
+        <v>12509</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31878</v>
+        <v>32180</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02269032773044451</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01393330516682683</v>
+        <v>0.01406184835091583</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03583628369955631</v>
+        <v>0.0361756327217847</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>612333</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>600858</v>
+        <v>601622</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>619688</v>
+        <v>620101</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9728598934516566</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9546299047900998</v>
+        <v>0.9558429845069922</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9845461024400639</v>
+        <v>0.9852019379181742</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>241</v>
@@ -3031,19 +3031,19 @@
         <v>257027</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>251066</v>
+        <v>251294</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>259173</v>
+        <v>259180</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9880764537617139</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9651594125064233</v>
+        <v>0.9660353292565803</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9963238383232518</v>
+        <v>0.9963521280618062</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>817</v>
@@ -3052,19 +3052,19 @@
         <v>869360</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>857666</v>
+        <v>857364</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>877150</v>
+        <v>877035</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9773096722695555</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.964163716300444</v>
+        <v>0.9638243672782153</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9860666948331732</v>
+        <v>0.9859381516490842</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>37814</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26492</v>
+        <v>26612</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51380</v>
+        <v>51093</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03262657156019953</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02285767942856787</v>
+        <v>0.02296113929101299</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04433124926187657</v>
+        <v>0.04408360685046686</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -3177,19 +3177,19 @@
         <v>4199</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10480</v>
+        <v>9852</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005490487092223018</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001353413253011473</v>
+        <v>0.001345270666460292</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0137040228366421</v>
+        <v>0.01288333277001081</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -3198,19 +3198,19 @@
         <v>42013</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30547</v>
+        <v>30324</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58338</v>
+        <v>57721</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02183942862935237</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01587897418268188</v>
+        <v>0.01576289001257377</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03032531070603837</v>
+        <v>0.03000460072848251</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1121195</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1107629</v>
+        <v>1107916</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1132517</v>
+        <v>1132397</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9673734284398005</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9556687507381234</v>
+        <v>0.9559163931495333</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9771423205714321</v>
+        <v>0.9770388607089874</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>706</v>
@@ -3248,19 +3248,19 @@
         <v>760523</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>754242</v>
+        <v>754870</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>763687</v>
+        <v>763693</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.994509512907777</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9862959771633579</v>
+        <v>0.9871166672299889</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9986465867469886</v>
+        <v>0.9986547293335397</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1754</v>
@@ -3269,19 +3269,19 @@
         <v>1881718</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1865393</v>
+        <v>1866010</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1893184</v>
+        <v>1893407</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9781605713706476</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9696746892939616</v>
+        <v>0.9699953992715168</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9841210258173179</v>
+        <v>0.9842371099874262</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>11308</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6122</v>
+        <v>5958</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19522</v>
+        <v>20020</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02214739854700931</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01199012867808492</v>
+        <v>0.01166914753189074</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03823440949237036</v>
+        <v>0.0392095940097109</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -3394,19 +3394,19 @@
         <v>18407</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10880</v>
+        <v>11296</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28860</v>
+        <v>28723</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02421152084348667</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01431052273799777</v>
+        <v>0.01485821064566703</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03796201094801852</v>
+        <v>0.03778132032986214</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -3415,19 +3415,19 @@
         <v>29715</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20674</v>
+        <v>19215</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42227</v>
+        <v>41539</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02338220241978194</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01626797236050547</v>
+        <v>0.01511976753729734</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03322719311644964</v>
+        <v>0.03268626784058305</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>499288</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>491074</v>
+        <v>490576</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>504474</v>
+        <v>504638</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9778526014529907</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9617655905076298</v>
+        <v>0.9607904059902893</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9880098713219151</v>
+        <v>0.9883308524681093</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>685</v>
@@ -3465,19 +3465,19 @@
         <v>741839</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>731386</v>
+        <v>731523</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>749366</v>
+        <v>748950</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9757884791565133</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9620379890519815</v>
+        <v>0.9622186796701373</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9856894772620023</v>
+        <v>0.9851417893543329</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1161</v>
@@ -3486,19 +3486,19 @@
         <v>1241128</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1228616</v>
+        <v>1229304</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1250169</v>
+        <v>1251628</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.976617797580218</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9667728068835505</v>
+        <v>0.9673137321594171</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9837320276394945</v>
+        <v>0.9848802324627027</v>
       </c>
     </row>
     <row r="18">
@@ -3603,19 +3603,19 @@
         <v>14825</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8139</v>
+        <v>7568</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24165</v>
+        <v>23980</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01337754111267899</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007344298395489919</v>
+        <v>0.006829682333036859</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02180613763447348</v>
+        <v>0.02163898986017965</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -3624,19 +3624,19 @@
         <v>14825</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8407</v>
+        <v>8280</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24212</v>
+        <v>23661</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01078110978392365</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006114087902347311</v>
+        <v>0.00602169262401209</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.017607911323309</v>
+        <v>0.01720710890757726</v>
       </c>
     </row>
     <row r="20">
@@ -3666,19 +3666,19 @@
         <v>1093344</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1084004</v>
+        <v>1084189</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1100030</v>
+        <v>1100601</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.986622458887321</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9781938623655265</v>
+        <v>0.9783610101398214</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.99265570160451</v>
+        <v>0.9931703176669632</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1294</v>
@@ -3687,19 +3687,19 @@
         <v>1360226</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1350839</v>
+        <v>1351390</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1366644</v>
+        <v>1366771</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9892188902160763</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9823920886766913</v>
+        <v>0.9827928910924228</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9938859120976526</v>
+        <v>0.9939783073759879</v>
       </c>
     </row>
     <row r="21">
@@ -3791,19 +3791,19 @@
         <v>73653</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>58344</v>
+        <v>57510</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>93686</v>
+        <v>92485</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02152406323668673</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01705012458183687</v>
+        <v>0.01680654727021107</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02737840355734297</v>
+        <v>0.02702723240421067</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -3812,19 +3812,19 @@
         <v>42468</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30343</v>
+        <v>30548</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57729</v>
+        <v>56452</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01197720023530587</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008557640212138872</v>
+        <v>0.008615462882072633</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01628116925015008</v>
+        <v>0.01592099320318991</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>106</v>
@@ -3833,19 +3833,19 @@
         <v>116121</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>96266</v>
+        <v>95326</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>140184</v>
+        <v>140412</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01666580314561747</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01381622354115884</v>
+        <v>0.01368124564271729</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02011929307368974</v>
+        <v>0.0201519877272206</v>
       </c>
     </row>
     <row r="23">
@@ -3862,19 +3862,19 @@
         <v>3348257</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3328224</v>
+        <v>3329425</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3363566</v>
+        <v>3364400</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9784759367633132</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.972621596442657</v>
+        <v>0.9729727675957897</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9829498754181631</v>
+        <v>0.983193452729789</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3247</v>
@@ -3883,19 +3883,19 @@
         <v>3503264</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3488003</v>
+        <v>3489280</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3515389</v>
+        <v>3515184</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9880227997646941</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9837188307498499</v>
+        <v>0.98407900679681</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9914423597878614</v>
+        <v>0.9913845371179273</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6386</v>
@@ -3904,19 +3904,19 @@
         <v>6851521</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6827458</v>
+        <v>6827230</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6871376</v>
+        <v>6872316</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9833341968543825</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.97988070692631</v>
+        <v>0.9798480122727801</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9861837764588411</v>
+        <v>0.9863187543572832</v>
       </c>
     </row>
     <row r="24">
@@ -4250,19 +4250,19 @@
         <v>6406</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2781</v>
+        <v>2602</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13251</v>
+        <v>14270</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01493009540210886</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006481483171032541</v>
+        <v>0.006063952961247881</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03088130667214331</v>
+        <v>0.0332569734111512</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6194</v>
+        <v>6295</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005890276548271592</v>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01784772568914562</v>
+        <v>0.01813717708153654</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -4292,19 +4292,19 @@
         <v>8451</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3618</v>
+        <v>3802</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15743</v>
+        <v>16842</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01088793093713897</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004660998437225774</v>
+        <v>0.0048979631582646</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0202832978561114</v>
+        <v>0.02169969248749566</v>
       </c>
     </row>
     <row r="5">
@@ -4321,19 +4321,19 @@
         <v>422686</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>415841</v>
+        <v>414822</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>426311</v>
+        <v>426490</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9850699045978911</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9691186933278567</v>
+        <v>0.9667430265888487</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9935185168289674</v>
+        <v>0.993936047038752</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>330</v>
@@ -4342,7 +4342,7 @@
         <v>345011</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>340861</v>
+        <v>340760</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>347055</v>
@@ -4351,7 +4351,7 @@
         <v>0.9941097234517284</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9821522743108544</v>
+        <v>0.9818628229184633</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4363,19 +4363,19 @@
         <v>767696</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>760404</v>
+        <v>759305</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>772529</v>
+        <v>772345</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9891120690628611</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9797167021438886</v>
+        <v>0.9783003075125043</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9953390015627742</v>
+        <v>0.9951020368417354</v>
       </c>
     </row>
     <row r="6">
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5160</v>
+        <v>6012</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002748772244952611</v>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01367747639307813</v>
+        <v>0.01593746666632982</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -4488,19 +4488,19 @@
         <v>3128</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>966</v>
+        <v>978</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8518</v>
+        <v>8818</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008403229561126458</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002594277462218254</v>
+        <v>0.002628071055790023</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02288108079883086</v>
+        <v>0.02368739681070224</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -4509,19 +4509,19 @@
         <v>4165</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1039</v>
+        <v>1151</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10290</v>
+        <v>10634</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005557314695205959</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001386085143789655</v>
+        <v>0.001535480950249836</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01372851003683086</v>
+        <v>0.01418747321774547</v>
       </c>
     </row>
     <row r="8">
@@ -4538,7 +4538,7 @@
         <v>376190</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>372067</v>
+        <v>371215</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>377227</v>
@@ -4547,7 +4547,7 @@
         <v>0.9972512277550474</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9863225236069219</v>
+        <v>0.9840625333336701</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4559,19 +4559,19 @@
         <v>369145</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>363755</v>
+        <v>363455</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>371307</v>
+        <v>371295</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9915967704388735</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9771189192011692</v>
+        <v>0.9763126031892979</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9974057225377817</v>
+        <v>0.99737192894421</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>702</v>
@@ -4580,19 +4580,19 @@
         <v>745335</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>739210</v>
+        <v>738866</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>748461</v>
+        <v>748349</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9944426853047941</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9862714899631696</v>
+        <v>0.9858125267822547</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9986139148562103</v>
+        <v>0.9984645190497502</v>
       </c>
     </row>
     <row r="9">
@@ -4684,19 +4684,19 @@
         <v>11252</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5889</v>
+        <v>5998</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19577</v>
+        <v>19810</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02155848880134552</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01128358604803466</v>
+        <v>0.01149161831885522</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03751012951246868</v>
+        <v>0.03795694821067291</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -4718,19 +4718,19 @@
         <v>11252</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6092</v>
+        <v>5886</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21090</v>
+        <v>19685</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01635330471700559</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008854081011621825</v>
+        <v>0.008554379611074034</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03065251872759635</v>
+        <v>0.02860988270257445</v>
       </c>
     </row>
     <row r="11">
@@ -4747,19 +4747,19 @@
         <v>510662</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>502337</v>
+        <v>502104</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>516025</v>
+        <v>515916</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9784415111986545</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9624898704875309</v>
+        <v>0.9620430517893275</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9887164139519652</v>
+        <v>0.9885083816811449</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>153</v>
@@ -4781,19 +4781,19 @@
         <v>676784</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>666946</v>
+        <v>668351</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>681944</v>
+        <v>682150</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9836466952829944</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9693474812724038</v>
+        <v>0.9713901172974261</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9911459189883783</v>
+        <v>0.991445620388926</v>
       </c>
     </row>
     <row r="12">
@@ -4885,19 +4885,19 @@
         <v>29699</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19774</v>
+        <v>20250</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41861</v>
+        <v>41799</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02583341056538372</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01719978818475235</v>
+        <v>0.01761448887567964</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03641247632763529</v>
+        <v>0.0363580149429821</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -4906,19 +4906,19 @@
         <v>10292</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4326</v>
+        <v>4742</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18523</v>
+        <v>19425</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01246243814765028</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005238166995936792</v>
+        <v>0.005742160367419299</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02242887025766993</v>
+        <v>0.02352081334075792</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -4927,19 +4927,19 @@
         <v>39992</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28879</v>
+        <v>28976</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53943</v>
+        <v>55320</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02024359341331669</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01461824458818972</v>
+        <v>0.01466748519451231</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02730561605137861</v>
+        <v>0.028002940501554</v>
       </c>
     </row>
     <row r="14">
@@ -4956,19 +4956,19 @@
         <v>1119939</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1107777</v>
+        <v>1107839</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1129864</v>
+        <v>1129388</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9741665894346163</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9635875236723642</v>
+        <v>0.9636419850570177</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9828002118152476</v>
+        <v>0.9823855111243203</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>789</v>
@@ -4977,19 +4977,19 @@
         <v>815584</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>807353</v>
+        <v>806451</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>821550</v>
+        <v>821134</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9875375618523498</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9775711297423301</v>
+        <v>0.976479186659242</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9947618330040632</v>
+        <v>0.994257839632581</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1863</v>
@@ -4998,19 +4998,19 @@
         <v>1935522</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1921571</v>
+        <v>1920194</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1946635</v>
+        <v>1946538</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9797564065866833</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9726943839486216</v>
+        <v>0.9719970594984459</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9853817554118105</v>
+        <v>0.9853325148054878</v>
       </c>
     </row>
     <row r="15">
@@ -5102,19 +5102,19 @@
         <v>15139</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8759</v>
+        <v>8768</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24242</v>
+        <v>24492</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02438969991386058</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01411088909285028</v>
+        <v>0.01412644797672974</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03905564541710382</v>
+        <v>0.03945824428726973</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -5123,19 +5123,19 @@
         <v>13514</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7019</v>
+        <v>6983</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22484</v>
+        <v>22257</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01830502917048535</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009507358454511792</v>
+        <v>0.009459105285410167</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03045609747191899</v>
+        <v>0.03014835198867106</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -5144,19 +5144,19 @@
         <v>28652</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19044</v>
+        <v>19021</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40949</v>
+        <v>40796</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02108422699538461</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01401405683097546</v>
+        <v>0.01399692834112026</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03013318587273821</v>
+        <v>0.03001989351565353</v>
       </c>
     </row>
     <row r="17">
@@ -5173,19 +5173,19 @@
         <v>605567</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>596464</v>
+        <v>596214</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>611947</v>
+        <v>611938</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9756103000861395</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9609443545828962</v>
+        <v>0.9605417557127298</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9858891109071497</v>
+        <v>0.9858735520232702</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>687</v>
@@ -5194,19 +5194,19 @@
         <v>724730</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>715760</v>
+        <v>715987</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>731225</v>
+        <v>731261</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9816949708295146</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9695439025280804</v>
+        <v>0.9698516480113291</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.990492641545488</v>
+        <v>0.9905408947145899</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1269</v>
@@ -5215,19 +5215,19 @@
         <v>1330298</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1318001</v>
+        <v>1318154</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1339906</v>
+        <v>1339929</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9789157730046154</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9698668141272619</v>
+        <v>0.9699801064843467</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9859859431690245</v>
+        <v>0.9860030716588798</v>
       </c>
     </row>
     <row r="18">
@@ -5319,19 +5319,19 @@
         <v>2947</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8794</v>
+        <v>8188</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01026416100218145</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003115943968497015</v>
+        <v>0.003102163492181381</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03062694724697901</v>
+        <v>0.02851648025768956</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -5340,19 +5340,19 @@
         <v>14311</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6993</v>
+        <v>7723</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22508</v>
+        <v>24160</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01322604135633756</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006462582525047398</v>
+        <v>0.007137651501852328</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02080132394655859</v>
+        <v>0.02232825247449172</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -5361,19 +5361,19 @@
         <v>17258</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9925</v>
+        <v>10331</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27191</v>
+        <v>29469</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01260486971860778</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007248984511951502</v>
+        <v>0.007545190168275815</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01985943620909344</v>
+        <v>0.02152356220055468</v>
       </c>
     </row>
     <row r="20">
@@ -5390,19 +5390,19 @@
         <v>284198</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>278351</v>
+        <v>278957</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286250</v>
+        <v>286254</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9897358389978186</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.969373052753021</v>
+        <v>0.9714835197423105</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.996884056031503</v>
+        <v>0.9968978365078186</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>979</v>
@@ -5411,19 +5411,19 @@
         <v>1067714</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1059517</v>
+        <v>1057865</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1075032</v>
+        <v>1074302</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9867739586436625</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9791986760534412</v>
+        <v>0.977671747525508</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9935374174749525</v>
+        <v>0.9928623484981476</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1248</v>
@@ -5432,19 +5432,19 @@
         <v>1351912</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1341979</v>
+        <v>1339701</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1359245</v>
+        <v>1358839</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9873951302813923</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9801405637909064</v>
+        <v>0.9784764377994446</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9927510154880486</v>
+        <v>0.992454809831724</v>
       </c>
     </row>
     <row r="21">
@@ -5536,19 +5536,19 @@
         <v>66480</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>51887</v>
+        <v>52164</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>82958</v>
+        <v>83924</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01963545073044945</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01532516560899484</v>
+        <v>0.01540696778765122</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.024502290166006</v>
+        <v>0.02478747712029029</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -5557,19 +5557,19 @@
         <v>43289</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30964</v>
+        <v>31850</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>59450</v>
+        <v>58325</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01225776150099307</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008767733183504482</v>
+        <v>0.009018611013015288</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0168338446887681</v>
+        <v>0.01651506734378463</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>105</v>
@@ -5578,19 +5578,19 @@
         <v>109770</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>88886</v>
+        <v>89692</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>129412</v>
+        <v>132741</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01586881506931529</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01284982067927378</v>
+        <v>0.01296632258897719</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01870843731909917</v>
+        <v>0.0191896210257552</v>
       </c>
     </row>
     <row r="23">
@@ -5607,19 +5607,19 @@
         <v>3319242</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3302764</v>
+        <v>3301798</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3333835</v>
+        <v>3333558</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9803645492695505</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9754977098339939</v>
+        <v>0.9752125228797096</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.984674834391005</v>
+        <v>0.9845930322123487</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3287</v>
@@ -5628,19 +5628,19 @@
         <v>3488307</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3472146</v>
+        <v>3473271</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3500632</v>
+        <v>3499746</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9877422384990069</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.983166155311232</v>
+        <v>0.9834849326562155</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9912322668164957</v>
+        <v>0.9909813889869847</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6445</v>
@@ -5649,19 +5649,19 @@
         <v>6807548</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6787906</v>
+        <v>6784577</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6828432</v>
+        <v>6827626</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9841311849306847</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9812915626809008</v>
+        <v>0.9808103789742448</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9871501793207261</v>
+        <v>0.9870336774110228</v>
       </c>
     </row>
     <row r="24">
@@ -5995,19 +5995,19 @@
         <v>6551</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3260</v>
+        <v>2632</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12308</v>
+        <v>12040</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0118978935104157</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005920857082639276</v>
+        <v>0.004780340048242664</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02235296220813207</v>
+        <v>0.02186679505911833</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -6016,19 +6016,19 @@
         <v>5476</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2367</v>
+        <v>2818</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10295</v>
+        <v>10357</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01121148404170772</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004847212410691719</v>
+        <v>0.005769936969846105</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02107762922807418</v>
+        <v>0.02120610923630912</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -6037,19 +6037,19 @@
         <v>12027</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7132</v>
+        <v>7479</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19551</v>
+        <v>19818</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01157523667639476</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006864350263524248</v>
+        <v>0.007197589614889618</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01881694347848472</v>
+        <v>0.019073485606501</v>
       </c>
     </row>
     <row r="5">
@@ -6066,19 +6066,19 @@
         <v>544067</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>538310</v>
+        <v>538578</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>547358</v>
+        <v>547986</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9881021064895843</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9776470377918679</v>
+        <v>0.9781332049408817</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9940791429173608</v>
+        <v>0.9952196599517575</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>677</v>
@@ -6087,19 +6087,19 @@
         <v>482935</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>478116</v>
+        <v>478054</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>486044</v>
+        <v>485593</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9887885159582924</v>
+        <v>0.9887885159582923</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9789223707719258</v>
+        <v>0.9787938907636897</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9951527875893081</v>
+        <v>0.9942300630301537</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1222</v>
@@ -6108,19 +6108,19 @@
         <v>1027002</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1019478</v>
+        <v>1019211</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1031897</v>
+        <v>1031550</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9884247633236053</v>
+        <v>0.9884247633236052</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9811830565215156</v>
+        <v>0.980926514393498</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9931356497364759</v>
+        <v>0.9928024103851103</v>
       </c>
     </row>
     <row r="6">
@@ -6212,19 +6212,19 @@
         <v>5760</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2516</v>
+        <v>2844</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11683</v>
+        <v>12399</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.01192114802135781</v>
+        <v>0.0119211480213578</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005207580992417904</v>
+        <v>0.005885711218409092</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0241777538091382</v>
+        <v>0.02565941194865955</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -6233,19 +6233,19 @@
         <v>6315</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2928</v>
+        <v>3170</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11315</v>
+        <v>11036</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0149479998616148</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006930188386671711</v>
+        <v>0.007504252936102649</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02678065856699815</v>
+        <v>0.0261218450827658</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -6254,19 +6254,19 @@
         <v>12076</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7457</v>
+        <v>7660</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18837</v>
+        <v>19666</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01333311054956645</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008233871318085149</v>
+        <v>0.008457227950655899</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02079856398987567</v>
+        <v>0.02171335540329411</v>
       </c>
     </row>
     <row r="8">
@@ -6283,19 +6283,19 @@
         <v>477452</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>471529</v>
+        <v>470813</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>480696</v>
+        <v>480368</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9880788519786421</v>
+        <v>0.9880788519786422</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9758222461908619</v>
+        <v>0.9743405880513404</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9947924190075818</v>
+        <v>0.9941142887815909</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>578</v>
@@ -6304,19 +6304,19 @@
         <v>416177</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>411177</v>
+        <v>411456</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>419564</v>
+        <v>419322</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9850520001383852</v>
+        <v>0.9850520001383853</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9732193414330019</v>
+        <v>0.9738781549172341</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9930698116133283</v>
+        <v>0.9924957470638972</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1051</v>
@@ -6325,19 +6325,19 @@
         <v>893628</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>886867</v>
+        <v>886038</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>898247</v>
+        <v>898044</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9866668894504335</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9792014360101242</v>
+        <v>0.9782866445967069</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9917661286819145</v>
+        <v>0.9915427720493444</v>
       </c>
     </row>
     <row r="9">
@@ -6429,19 +6429,19 @@
         <v>14763</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8805</v>
+        <v>9047</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23480</v>
+        <v>25135</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03143507569199942</v>
+        <v>0.03143507569199943</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01874922305483921</v>
+        <v>0.01926249454848042</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04999543518564467</v>
+        <v>0.053519871720847</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -6450,19 +6450,19 @@
         <v>7948</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4341</v>
+        <v>4326</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13389</v>
+        <v>13199</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04239264193807717</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02315233107568184</v>
+        <v>0.02307336278817398</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07141107842939397</v>
+        <v>0.07039784937234525</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -6471,19 +6471,19 @@
         <v>22712</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15212</v>
+        <v>15528</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31627</v>
+        <v>32720</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03456150989465534</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02314855644733744</v>
+        <v>0.02362923900077633</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04812766691721369</v>
+        <v>0.04979068370779086</v>
       </c>
     </row>
     <row r="11">
@@ -6500,19 +6500,19 @@
         <v>454882</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>446165</v>
+        <v>444510</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>460840</v>
+        <v>460598</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9685649243080006</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9500045648143551</v>
+        <v>0.946480128279153</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9812507769451608</v>
+        <v>0.9807375054515196</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>276</v>
@@ -6521,19 +6521,19 @@
         <v>179549</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>174108</v>
+        <v>174298</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>183156</v>
+        <v>183171</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9576073580619229</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9285889215706061</v>
+        <v>0.9296021506276547</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9768476689243182</v>
+        <v>0.976926637211826</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>743</v>
@@ -6542,19 +6542,19 @@
         <v>634431</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>625516</v>
+        <v>624423</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>641931</v>
+        <v>641615</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9654384901053444</v>
+        <v>0.9654384901053447</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9518723330827854</v>
+        <v>0.9502093162922092</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9768514435526625</v>
+        <v>0.9763707609992236</v>
       </c>
     </row>
     <row r="12">
@@ -6646,19 +6646,19 @@
         <v>35477</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25727</v>
+        <v>26107</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47950</v>
+        <v>47905</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03134467219915418</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02273060168473584</v>
+        <v>0.02306581918905845</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04236421622872917</v>
+        <v>0.04232477099021614</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -6667,19 +6667,19 @@
         <v>14983</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9412</v>
+        <v>9517</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22713</v>
+        <v>23561</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0173981697000375</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01092904299512516</v>
+        <v>0.01105099503606236</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02637299217367694</v>
+        <v>0.0273585677097235</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>69</v>
@@ -6688,19 +6688,19 @@
         <v>50461</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40379</v>
+        <v>39087</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>64886</v>
+        <v>65650</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02531829961414186</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02026000967097574</v>
+        <v>0.01961173706248939</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03255624436288438</v>
+        <v>0.03293958892248939</v>
       </c>
     </row>
     <row r="14">
@@ -6717,19 +6717,19 @@
         <v>1096366</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1083893</v>
+        <v>1083938</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1106116</v>
+        <v>1105736</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9686553278008457</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.957635783771271</v>
+        <v>0.9576752290097842</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9772693983152642</v>
+        <v>0.9769341808109419</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1207</v>
@@ -6738,19 +6738,19 @@
         <v>846228</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>838498</v>
+        <v>837650</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>851799</v>
+        <v>851694</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9826018302999625</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9736270078263231</v>
+        <v>0.9726414322902764</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9890709570048749</v>
+        <v>0.9889490049639377</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2279</v>
@@ -6759,19 +6759,19 @@
         <v>1942593</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1928168</v>
+        <v>1927404</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1952675</v>
+        <v>1953967</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9746817003858581</v>
+        <v>0.9746817003858583</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9674437556371157</v>
+        <v>0.9670604110775107</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9797399903290244</v>
+        <v>0.9803882629375105</v>
       </c>
     </row>
     <row r="15">
@@ -6863,19 +6863,19 @@
         <v>23634</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16241</v>
+        <v>15900</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34332</v>
+        <v>33520</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04168444027790413</v>
+        <v>0.04168444027790411</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02864534327605444</v>
+        <v>0.02804384808733252</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06055288441755718</v>
+        <v>0.05912021089213096</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -6884,19 +6884,19 @@
         <v>33708</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25171</v>
+        <v>24791</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47173</v>
+        <v>49457</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04076391800094197</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03043981052385401</v>
+        <v>0.02998005523053332</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05704680876754986</v>
+        <v>0.0598084012598359</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -6905,19 +6905,19 @@
         <v>57343</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>45752</v>
+        <v>45046</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>72933</v>
+        <v>72963</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04113834664002935</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03282337707575179</v>
+        <v>0.03231651233468199</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05232304642338095</v>
+        <v>0.05234493585986279</v>
       </c>
     </row>
     <row r="17">
@@ -6934,19 +6934,19 @@
         <v>543342</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>532644</v>
+        <v>533456</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>550735</v>
+        <v>551076</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9583155597220959</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.939447115582443</v>
+        <v>0.9408797891078691</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9713546567239457</v>
+        <v>0.9719561519126676</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1229</v>
@@ -6955,19 +6955,19 @@
         <v>793211</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>779746</v>
+        <v>777462</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>801748</v>
+        <v>802128</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9592360819990581</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9429531912324496</v>
+        <v>0.9401915987401648</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9695601894761458</v>
+        <v>0.9700199447694667</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1745</v>
@@ -6976,19 +6976,19 @@
         <v>1336552</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1320962</v>
+        <v>1320932</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1348143</v>
+        <v>1348849</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9588616533599705</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9476769535766187</v>
+        <v>0.9476550641401369</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9671766229242479</v>
+        <v>0.9676834876653181</v>
       </c>
     </row>
     <row r="18">
@@ -7083,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3641</v>
+        <v>3625</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.004321880749674231</v>
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01534855572387085</v>
+        <v>0.01528213525625008</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -7101,19 +7101,19 @@
         <v>20114</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14199</v>
+        <v>14830</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27639</v>
+        <v>27593</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02387191900346027</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01685216889536971</v>
+        <v>0.01760009376276822</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0328025767639975</v>
+        <v>0.03274830878228303</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -7122,19 +7122,19 @@
         <v>21139</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14919</v>
+        <v>14963</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28523</v>
+        <v>28786</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01957689866937988</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01381666201437802</v>
+        <v>0.01385714979671079</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02641505440852812</v>
+        <v>0.02665872598003871</v>
       </c>
     </row>
     <row r="20">
@@ -7151,16 +7151,16 @@
         <v>236203</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>233587</v>
+        <v>233603</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>237228</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9956781192503258</v>
+        <v>0.9956781192503257</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9846514442761291</v>
+        <v>0.9847178647437499</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -7172,19 +7172,19 @@
         <v>822469</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>814944</v>
+        <v>814990</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>828384</v>
+        <v>827753</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9761280809965396</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9671974232360023</v>
+        <v>0.9672516912177169</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9831478311046303</v>
+        <v>0.9823999062372317</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1229</v>
@@ -7193,19 +7193,19 @@
         <v>1058672</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1051288</v>
+        <v>1051025</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1064892</v>
+        <v>1064848</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9804231013306202</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9735849455914719</v>
+        <v>0.9733412740199598</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9861833379856222</v>
+        <v>0.9861428502032886</v>
       </c>
     </row>
     <row r="21">
@@ -7297,19 +7297,19 @@
         <v>87212</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>70618</v>
+        <v>72277</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>104470</v>
+        <v>106456</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02535572285054495</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02053131993182602</v>
+        <v>0.02101356872448706</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0303734528497095</v>
+        <v>0.03095068668476953</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>148</v>
@@ -7318,19 +7318,19 @@
         <v>88546</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>74150</v>
+        <v>75059</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>105533</v>
+        <v>107585</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02439872905881444</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02043193278924532</v>
+        <v>0.02068238543363181</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02907948275783805</v>
+        <v>0.0296450669404628</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>262</v>
@@ -7339,19 +7339,19 @@
         <v>175757</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>154033</v>
+        <v>154435</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>199112</v>
+        <v>201936</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02486439197885682</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02179106334238444</v>
+        <v>0.02184792675216282</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02816835902032727</v>
+        <v>0.02856793995954426</v>
       </c>
     </row>
     <row r="23">
@@ -7368,19 +7368,19 @@
         <v>3352310</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3335052</v>
+        <v>3333066</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3368904</v>
+        <v>3367245</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.974644277149455</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9696265471502903</v>
+        <v>0.9690493133152306</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9794686800681741</v>
+        <v>0.978986431275513</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5086</v>
@@ -7389,19 +7389,19 @@
         <v>3540567</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3523580</v>
+        <v>3521528</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3554963</v>
+        <v>3554054</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9756012709411856</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9709205172421618</v>
+        <v>0.9703549330595374</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9795680672107543</v>
+        <v>0.9793176145663681</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8269</v>
@@ -7410,19 +7410,19 @@
         <v>6892879</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6869524</v>
+        <v>6866700</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6914603</v>
+        <v>6914201</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9751356080211431</v>
+        <v>0.9751356080211432</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9718316409796729</v>
+        <v>0.9714320600404562</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9782089366576158</v>
+        <v>0.978152073247837</v>
       </c>
     </row>
     <row r="24">
